--- a/test-data/cts-data.xlsx
+++ b/test-data/cts-data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mashkinaea/IdeaProjects/cgov-digital-platform-qa/test-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cgov_workspace\cgov-digital-platform-qa\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FEA460-63E5-D949-9490-EEB1D8F7F77F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84984565-2CA8-4FB9-A39E-F9A86BBB02A3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{02E62B52-A561-7E40-BFFB-9E993FCF680A}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="16470" windowHeight="8070" activeTab="2" xr2:uid="{02E62B52-A561-7E40-BFFB-9E993FCF680A}"/>
   </bookViews>
   <sheets>
     <sheet name="cts_pages" sheetId="5" r:id="rId1"/>
     <sheet name="trial_description" sheetId="4" r:id="rId2"/>
+    <sheet name="basicsearch_form" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>path</t>
   </si>
@@ -47,6 +48,33 @@
   </si>
   <si>
     <t>/about-cancer/treatment/clinical-trials/search/r?rl=1</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>Find NCI-Supported Clinical Trials</t>
+  </si>
+  <si>
+    <t>lbl_cancertype</t>
+  </si>
+  <si>
+    <t>Cancer Type/Keyword</t>
+  </si>
+  <si>
+    <t>helptext_cancertype</t>
+  </si>
+  <si>
+    <t>helpicon_cancertype</t>
+  </si>
+  <si>
+    <t>lbl_age</t>
+  </si>
+  <si>
+    <t>helptext_age</t>
+  </si>
+  <si>
+    <t>helpicon_age</t>
   </si>
 </sst>
 </file>
@@ -400,28 +428,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6FCA505-6804-0B4C-9D38-A3C32C472430}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -437,16 +465,78 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE4294F-A391-4C0B-BC6B-1CA72789792B}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
